--- a/output/archivos/maxi-od-3-ACTUALIZADO.xlsx
+++ b/output/archivos/maxi-od-3-ACTUALIZADO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicob\OneDrive\Escritorio\ilporco-scraper\archivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicob\OneDrive\Escritorio\ilporco-scraper\output\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA028F6-6662-490D-8DCE-5C18EBC6AE6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE49AAEF-CA92-43AC-AA50-C3A3E9CE0C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="346">
   <si>
     <t>Il Porco</t>
   </si>
@@ -49,837 +49,879 @@
     <t>CALDO DE VERDURA KNORR X 6 UNIDADES</t>
   </si>
   <si>
-    <t>7794000006621</t>
-  </si>
-  <si>
     <t>MAXICONSUMO</t>
   </si>
   <si>
+    <t>537,11</t>
+  </si>
+  <si>
+    <t>2024-01-16 00:00:00</t>
+  </si>
+  <si>
+    <t>2333</t>
+  </si>
+  <si>
+    <t>ADEREZO TAU C/AJO X 300 GR</t>
+  </si>
+  <si>
+    <t>7798146139090</t>
+  </si>
+  <si>
+    <t>1.652,81</t>
+  </si>
+  <si>
+    <t>2023-12-29 00:00:00</t>
+  </si>
+  <si>
+    <t>2216</t>
+  </si>
+  <si>
+    <t>ADEREZO TAU CHEDDAR X 300 GR</t>
+  </si>
+  <si>
+    <t>7798146139045</t>
+  </si>
+  <si>
+    <t>909,05</t>
+  </si>
+  <si>
+    <t>2023-12-22 00:00:00</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>ADEREZO TAU MOSTAZA DULCE X 320 GR</t>
+  </si>
+  <si>
+    <t>7798146139076</t>
+  </si>
+  <si>
+    <t>OSCAR DAVID</t>
+  </si>
+  <si>
+    <t>29137</t>
+  </si>
+  <si>
+    <t>Sin Precio</t>
+  </si>
+  <si>
+    <t>2023-12-20 00:00:00</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>ADEREZO TAU TERIYAKI X 320 GR</t>
+  </si>
+  <si>
+    <t>7798146139069</t>
+  </si>
+  <si>
+    <t>15429</t>
+  </si>
+  <si>
+    <t>3438</t>
+  </si>
+  <si>
+    <t>MATE COCIDO UNION CAJA X 50 UNIDADES</t>
+  </si>
+  <si>
+    <t>7790387800098</t>
+  </si>
+  <si>
+    <t>1.487,52</t>
+  </si>
+  <si>
+    <t>4532</t>
+  </si>
+  <si>
+    <t>MAYONESA MAYOLIVA POR 125 GRS</t>
+  </si>
+  <si>
+    <t>7791866001838</t>
+  </si>
+  <si>
+    <t>561,90</t>
+  </si>
+  <si>
+    <t>4752</t>
+  </si>
+  <si>
+    <t>MAYONESA MAYOLIVA POR 250 GRS</t>
+  </si>
+  <si>
+    <t>7791866003283</t>
+  </si>
+  <si>
+    <t>829</t>
+  </si>
+  <si>
+    <t>2024-01-11 00:00:00</t>
+  </si>
+  <si>
+    <t>5589</t>
+  </si>
+  <si>
+    <t>MAYONESA MOLTO CLASICA DOYPACK 250CC</t>
+  </si>
+  <si>
+    <t>7798138553323</t>
+  </si>
+  <si>
+    <t>429,67</t>
+  </si>
+  <si>
+    <t>2023-12-08 00:00:00</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>MAYONESA TAU PICANTE BOTELLA PLASTICA 300GRS</t>
+  </si>
+  <si>
+    <t>7798146139106</t>
+  </si>
+  <si>
+    <t>2023-12-21 00:00:00</t>
+  </si>
+  <si>
+    <t>5598</t>
+  </si>
+  <si>
+    <t>PALILLO ESENCIAL 50U</t>
+  </si>
+  <si>
+    <t>7797470007259</t>
+  </si>
+  <si>
+    <t>272,64</t>
+  </si>
+  <si>
+    <t>2024-01-02 00:00:00</t>
+  </si>
+  <si>
+    <t>5599</t>
+  </si>
+  <si>
+    <t>PALILLO Marolio 50U</t>
+  </si>
+  <si>
+    <t>7797470195659</t>
+  </si>
+  <si>
+    <t>3411</t>
+  </si>
+  <si>
+    <t>PAN RALLADO MAROLIO X500G</t>
+  </si>
+  <si>
+    <t>7797470132623</t>
+  </si>
+  <si>
+    <t>437,93</t>
+  </si>
+  <si>
+    <t>2024-01-23 00:00:00</t>
+  </si>
+  <si>
+    <t>3433</t>
+  </si>
+  <si>
+    <t>PAN RALLADO MOLTO X 500 GR</t>
+  </si>
+  <si>
+    <t>7798138554948</t>
+  </si>
+  <si>
+    <t>495,79</t>
+  </si>
+  <si>
+    <t>552</t>
+  </si>
+  <si>
+    <t>PAN RALLADO PREFERIDO X 500 GR</t>
+  </si>
+  <si>
+    <t>7790070411488</t>
+  </si>
+  <si>
+    <t>826,36</t>
+  </si>
+  <si>
+    <t>2023-12-13 00:00:00</t>
+  </si>
+  <si>
+    <t>3414</t>
+  </si>
+  <si>
+    <t>PAPAS FRITAS MAROLIO ORIGINAL X130G</t>
+  </si>
+  <si>
+    <t>7797470197080</t>
+  </si>
+  <si>
+    <t>2.066,03</t>
+  </si>
+  <si>
+    <t>2023-10-20 00:00:00</t>
+  </si>
+  <si>
+    <t>3413</t>
+  </si>
+  <si>
+    <t>PAPAS FRITAS MAROLIO SAB.CREMA CEBOLLA X130G</t>
+  </si>
+  <si>
+    <t>7797470197097</t>
+  </si>
+  <si>
+    <t>2023-11-27 00:00:00</t>
+  </si>
+  <si>
+    <t>3412</t>
+  </si>
+  <si>
+    <t>PAPAS FRITAS MAROLIO SAB.QUESO X130G</t>
+  </si>
+  <si>
+    <t>7797470197073</t>
+  </si>
+  <si>
+    <t>2990</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO HIGIENOL MAX DE 4 ROLLOS X 100 MT</t>
+  </si>
+  <si>
+    <t>7790250015833</t>
+  </si>
+  <si>
+    <t>2.479,26</t>
+  </si>
+  <si>
+    <t>3539</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO VUAL ROLLO X 4 UN X 30MT</t>
+  </si>
+  <si>
+    <t>7791818001961</t>
+  </si>
+  <si>
+    <t>991,65</t>
+  </si>
+  <si>
+    <t>3538</t>
+  </si>
+  <si>
+    <t>PAPEL HIGIENICO VUAL ROLLO X 6 UN X 30 MT</t>
+  </si>
+  <si>
+    <t>7791818001978</t>
+  </si>
+  <si>
+    <t>1.570,16</t>
+  </si>
+  <si>
+    <t>3293</t>
+  </si>
+  <si>
+    <t>PAPEL HIGUIENICO ESENCIAL 4X30MTS</t>
+  </si>
+  <si>
+    <t>7797470129685</t>
+  </si>
+  <si>
+    <t>2734</t>
+  </si>
+  <si>
+    <t>PASTA DE DIENTES COLGATE HERBAL X 70 GR</t>
+  </si>
+  <si>
+    <t>7509546677200</t>
+  </si>
+  <si>
+    <t>1.148,68</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>PASTA DE DIENTES ODOL DOBLE ACCION X 180 GR</t>
+  </si>
+  <si>
+    <t>7509546665931</t>
+  </si>
+  <si>
+    <t>Sin precio</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>PASTA DE DIENTES ODOLITO X 50 GR</t>
+  </si>
+  <si>
+    <t>7891024139165</t>
+  </si>
+  <si>
+    <t>2706</t>
+  </si>
+  <si>
+    <t>PASTA DE MANI MANTECOL CLASICO BAJO SODIO X 404 GR</t>
+  </si>
+  <si>
+    <t>7622201812713</t>
+  </si>
+  <si>
+    <t>2024-01-29 00:00:00</t>
+  </si>
+  <si>
+    <t>3235</t>
+  </si>
+  <si>
+    <t>PASTA DENTAL COLGATE LUMINOUS WHITE X 70 GR</t>
+  </si>
+  <si>
+    <t>7509546679389</t>
+  </si>
+  <si>
+    <t>2.892,48</t>
+  </si>
+  <si>
+    <t>3225</t>
+  </si>
+  <si>
+    <t>PASTA DENTAL COLGATE MAX.PROTE.ANTICARIES X 90 GR</t>
+  </si>
+  <si>
+    <t>7509546686295</t>
+  </si>
+  <si>
+    <t>1.239,59</t>
+  </si>
+  <si>
+    <t>3227</t>
+  </si>
+  <si>
+    <t>PASTA DENTAL COLGATE MAX.PROTEC.ANTICARIES X 180 G</t>
+  </si>
+  <si>
+    <t>7509546677545</t>
+  </si>
+  <si>
+    <t>2.644,54</t>
+  </si>
+  <si>
+    <t>2985</t>
+  </si>
+  <si>
+    <t>PATE DE FOIE MAROLIO X 90 GR</t>
+  </si>
+  <si>
+    <t>7797470000564</t>
+  </si>
+  <si>
+    <t>330,50</t>
+  </si>
+  <si>
+    <t>3522</t>
+  </si>
+  <si>
+    <t>PATE DE FOIE MOLTO X 90 GR</t>
+  </si>
+  <si>
+    <t>7798138554825</t>
+  </si>
+  <si>
+    <t>371,82</t>
+  </si>
+  <si>
+    <t>3523</t>
+  </si>
+  <si>
+    <t>PICADILLO DE CARNE MOLTO X 90 GR</t>
+  </si>
+  <si>
+    <t>7798138554832</t>
+  </si>
+  <si>
+    <t>2984</t>
+  </si>
+  <si>
+    <t>PICADILLO MAROLIO DE CARNE X 90 GR</t>
+  </si>
+  <si>
+    <t>7797470000571</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>POLENTA PRONTA PRESTO FLOWPACK 500GRS</t>
+  </si>
+  <si>
+    <t>7790580660000</t>
+  </si>
+  <si>
+    <t>785,04</t>
+  </si>
+  <si>
+    <t>3460</t>
+  </si>
+  <si>
+    <t>POMADA LIQUIDA WASSINGTON MARRON POMO X 60 ML</t>
+  </si>
+  <si>
+    <t>7793350000419</t>
+  </si>
+  <si>
+    <t>3461</t>
+  </si>
+  <si>
+    <t>POMADA LIQUIDA WASSINGTON NEGRO POMO X 60 ML</t>
+  </si>
+  <si>
+    <t>7793350000402</t>
+  </si>
+  <si>
+    <t>3316</t>
+  </si>
+  <si>
+    <t>POROTOS COLORADOS MAROLIO X400G</t>
+  </si>
+  <si>
+    <t>7797470198803</t>
+  </si>
+  <si>
+    <t>1.429,77</t>
+  </si>
+  <si>
+    <t>5604</t>
+  </si>
+  <si>
+    <t>POROTOS MAROLIO PAQUETE 400GRS</t>
+  </si>
+  <si>
+    <t>7797470001462</t>
+  </si>
+  <si>
+    <t>1.239,73</t>
+  </si>
+  <si>
+    <t>3314</t>
+  </si>
+  <si>
+    <t>POROTOS NEGROS MAROLIO X400G</t>
+  </si>
+  <si>
+    <t>7797470198797</t>
+  </si>
+  <si>
+    <t>1.330,23</t>
+  </si>
+  <si>
+    <t>3452</t>
+  </si>
+  <si>
+    <t>PROTECTOR DIARIO DONCELLA X 20 UNIDADES</t>
+  </si>
+  <si>
+    <t>7790940233240</t>
+  </si>
+  <si>
+    <t>3085</t>
+  </si>
+  <si>
+    <t>PURE DE PAPAS INST. MAGGI X125G</t>
+  </si>
+  <si>
+    <t>8445290367327</t>
+  </si>
+  <si>
+    <t>1.074,30</t>
+  </si>
+  <si>
+    <t>3417</t>
+  </si>
+  <si>
+    <t>PURE DE TOMATE MAROLIO X520G</t>
+  </si>
+  <si>
+    <t>7797470000588</t>
+  </si>
+  <si>
+    <t>5592</t>
+  </si>
+  <si>
+    <t>QUITAMANCHA ZORRO LIQUIDO DOYPACK 800ML</t>
+  </si>
+  <si>
+    <t>7790990001844</t>
+  </si>
+  <si>
+    <t>1.156,94</t>
+  </si>
+  <si>
+    <t>5581</t>
+  </si>
+  <si>
+    <t>QUITAMANCHA ZORRO PAQUETE 800GRS</t>
+  </si>
+  <si>
+    <t>7790990001905</t>
+  </si>
+  <si>
+    <t>884,21</t>
+  </si>
+  <si>
+    <t>3415</t>
+  </si>
+  <si>
+    <t>REBOZADOR MAROLIO X500GR</t>
+  </si>
+  <si>
+    <t>7797470132630</t>
+  </si>
+  <si>
+    <t>3432</t>
+  </si>
+  <si>
+    <t>REBOZADOR MOLTO X 500 GR</t>
+  </si>
+  <si>
+    <t>7798138554924</t>
+  </si>
+  <si>
+    <t>1589</t>
+  </si>
+  <si>
+    <t>REBOZADOR PREFERIDO FLOWPACK 500GRS</t>
+  </si>
+  <si>
+    <t>7790070411549</t>
+  </si>
+  <si>
+    <t>2024-01-12 00:00:00</t>
+  </si>
+  <si>
+    <t>2596</t>
+  </si>
+  <si>
+    <t>REBOZADOR PREFERIDO HORNO X 500 GR</t>
+  </si>
+  <si>
+    <t>7790070411518</t>
+  </si>
+  <si>
+    <t>2741</t>
+  </si>
+  <si>
+    <t>REPELENTE OFF AEROSOL X 131 GR</t>
+  </si>
+  <si>
+    <t>7790520025395</t>
+  </si>
+  <si>
+    <t>2024-01-05 00:00:00</t>
+  </si>
+  <si>
+    <t>2989</t>
+  </si>
+  <si>
+    <t>ROLLO DE COCINA MAROLIO X 3 UN 50 ROLLOS</t>
+  </si>
+  <si>
+    <t>7797470003893</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>SAL CELUSAL FINA CAJA X 500 GR</t>
+  </si>
+  <si>
+    <t>7790072002080</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>SAL CELUSAL FINA LIGHT SALERO X 235 GR</t>
+  </si>
+  <si>
+    <t>7790072000079</t>
+  </si>
+  <si>
+    <t>2.661,07</t>
+  </si>
+  <si>
+    <t>1209</t>
+  </si>
+  <si>
+    <t>SAL CELUSAL FINA SALERO X 500 GRS</t>
+  </si>
+  <si>
+    <t>7790072001038</t>
+  </si>
+  <si>
+    <t>546</t>
+  </si>
+  <si>
+    <t>SAL CELUSAL FINA X 500 GR</t>
+  </si>
+  <si>
+    <t>7790072001014</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>SAL CELUSAL GRUESA BOLSA 1,0KG</t>
+  </si>
+  <si>
+    <t>7791004000099</t>
+  </si>
+  <si>
+    <t>1217</t>
+  </si>
+  <si>
+    <t>SAL CELUSAL GRUESA PAQUETE X 500 GR</t>
+  </si>
+  <si>
+    <t>7791004000822</t>
+  </si>
+  <si>
     <t>454,46</t>
   </si>
   <si>
-    <t>2024-01-16 00:00:00</t>
-  </si>
-  <si>
-    <t>2333</t>
-  </si>
-  <si>
-    <t>ADEREZO TAU C/AJO X 300 GR</t>
-  </si>
-  <si>
-    <t>7798146139090</t>
-  </si>
-  <si>
-    <t>1.570,16</t>
-  </si>
-  <si>
-    <t>2023-12-29 00:00:00</t>
-  </si>
-  <si>
-    <t>2216</t>
-  </si>
-  <si>
-    <t>ADEREZO TAU CHEDDAR X 300 GR</t>
-  </si>
-  <si>
-    <t>7798146139045</t>
+    <t>3180</t>
+  </si>
+  <si>
+    <t>SAL CELUSAL GRUESA PAQUETE X1KG</t>
+  </si>
+  <si>
+    <t>7791004000082</t>
+  </si>
+  <si>
+    <t>842,89</t>
+  </si>
+  <si>
+    <t>1325</t>
+  </si>
+  <si>
+    <t>SAL CELUSAL GRUESA SALERO 1,0KG</t>
+  </si>
+  <si>
+    <t>7791004000105</t>
+  </si>
+  <si>
+    <t>1.983,38</t>
+  </si>
+  <si>
+    <t>3450</t>
+  </si>
+  <si>
+    <t>SAL DOS ANCLAS FINA PAQ. X 500 GR</t>
+  </si>
+  <si>
+    <t>7792900000428</t>
+  </si>
+  <si>
+    <t>603,22</t>
+  </si>
+  <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>SAL DOS ANCLAS FINA PAQUETE 500GRS</t>
+  </si>
+  <si>
+    <t>7792900000138</t>
+  </si>
+  <si>
+    <t>1220</t>
+  </si>
+  <si>
+    <t>SAL DOS ANCLAS FINA SALERO X 250 GR</t>
+  </si>
+  <si>
+    <t>7792900634227</t>
+  </si>
+  <si>
+    <t>1211</t>
+  </si>
+  <si>
+    <t>SAL DOS ANCLAS GRUESA BOLSA 1,0KG</t>
+  </si>
+  <si>
+    <t>7792900006949</t>
+  </si>
+  <si>
+    <t>3325</t>
+  </si>
+  <si>
+    <t>SAL DOS ANCLAS GRUESA X1KG</t>
+  </si>
+  <si>
+    <t>7792900000121</t>
+  </si>
+  <si>
+    <t>2226</t>
+  </si>
+  <si>
+    <t>SAL GRUESA DOS ANCLAS CAJA X 500 GR</t>
+  </si>
+  <si>
+    <t>7792900092676</t>
+  </si>
+  <si>
+    <t>429,66</t>
+  </si>
+  <si>
+    <t>2344</t>
+  </si>
+  <si>
+    <t>SAL PARRILLERA DOS ANCLAS CAJA X 1 KG</t>
+  </si>
+  <si>
+    <t>7792900000145</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>SALSA BARBACOA LA CAMPAÑOLA X 237 GR</t>
+  </si>
+  <si>
+    <t>7793360123474</t>
+  </si>
+  <si>
+    <t>1566</t>
+  </si>
+  <si>
+    <t>SALSA HELLMANNS BARBACOA X 250 GR</t>
+  </si>
+  <si>
+    <t>7794000003583</t>
+  </si>
+  <si>
+    <t>3292</t>
+  </si>
+  <si>
+    <t>SALSA MAROLIO FILETTO X200G</t>
+  </si>
+  <si>
+    <t>7797470197936</t>
+  </si>
+  <si>
+    <t>479,26</t>
+  </si>
+  <si>
+    <t>3291</t>
+  </si>
+  <si>
+    <t>SALSA MAROLIO PIZZA X200G</t>
+  </si>
+  <si>
+    <t>7797470197929</t>
+  </si>
+  <si>
+    <t>2297</t>
+  </si>
+  <si>
+    <t>SALSA TAHITI AJI PICANTE X 285 GR</t>
+  </si>
+  <si>
+    <t>7798116163087</t>
+  </si>
+  <si>
+    <t>2288</t>
+  </si>
+  <si>
+    <t>SALSA TAHITI CESAR X 265 GR</t>
+  </si>
+  <si>
+    <t>7798116160017</t>
+  </si>
+  <si>
+    <t>1.239,90</t>
+  </si>
+  <si>
+    <t>2295</t>
+  </si>
+  <si>
+    <t>SALSA TAHITI CHIMICHURRI X 270 GR</t>
+  </si>
+  <si>
+    <t>7798116163018</t>
+  </si>
+  <si>
+    <t>999,90</t>
+  </si>
+  <si>
+    <t>2296</t>
+  </si>
+  <si>
+    <t>SALSA TAHITI CRIOLLA X 275 GR</t>
+  </si>
+  <si>
+    <t>7798116166439</t>
+  </si>
+  <si>
+    <t>1.299,90</t>
+  </si>
+  <si>
+    <t>2289</t>
+  </si>
+  <si>
+    <t>SALSA TAHITI INGLESA X 265 GR</t>
+  </si>
+  <si>
+    <t>7798116166446</t>
+  </si>
+  <si>
+    <t>1.049,90</t>
+  </si>
+  <si>
+    <t>3504</t>
+  </si>
+  <si>
+    <t>VINAGRE MOLTO DE MANZANA X 1 LT</t>
+  </si>
+  <si>
+    <t>7798138551589</t>
+  </si>
+  <si>
+    <t>1.074,29</t>
+  </si>
+  <si>
+    <t>5572</t>
+  </si>
+  <si>
+    <t>VINGRE DE VINO MOLTO X 500ML</t>
+  </si>
+  <si>
+    <t>7798138551596</t>
+  </si>
+  <si>
+    <t>702,39</t>
+  </si>
+  <si>
+    <t>1187</t>
+  </si>
+  <si>
+    <t>VITINA LUCCHETTI CLASICA CAJA 500GRS</t>
+  </si>
+  <si>
+    <t>7790070318879</t>
   </si>
   <si>
     <t>1.818,10</t>
   </si>
   <si>
-    <t>2023-12-22 00:00:00</t>
-  </si>
-  <si>
-    <t>3438</t>
-  </si>
-  <si>
-    <t>MATE COCIDO UNION CAJA X 50 UNIDADES</t>
-  </si>
-  <si>
-    <t>7790387800098</t>
-  </si>
-  <si>
-    <t>1.487,52</t>
-  </si>
-  <si>
-    <t>4532</t>
-  </si>
-  <si>
-    <t>MAYONESA MAYOLIVA POR 125 GRS</t>
-  </si>
-  <si>
-    <t>7791866001838</t>
-  </si>
-  <si>
-    <t>561,90</t>
-  </si>
-  <si>
-    <t>5589</t>
-  </si>
-  <si>
-    <t>MAYONESA MOLTO CLASICA DOYPACK 250CC</t>
-  </si>
-  <si>
-    <t>7798138553323</t>
-  </si>
-  <si>
-    <t>Sin precio</t>
-  </si>
-  <si>
-    <t>2023-12-08 00:00:00</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>MAYONESA TAU PICANTE BOTELLA PLASTICA 300GRS</t>
-  </si>
-  <si>
-    <t>7798146139106</t>
-  </si>
-  <si>
-    <t>2023-12-21 00:00:00</t>
-  </si>
-  <si>
-    <t>5598</t>
-  </si>
-  <si>
-    <t>PALILLO ESENCIAL 50U</t>
-  </si>
-  <si>
-    <t>7797470007259</t>
-  </si>
-  <si>
-    <t>247,85</t>
-  </si>
-  <si>
-    <t>2024-01-02 00:00:00</t>
-  </si>
-  <si>
-    <t>5599</t>
-  </si>
-  <si>
-    <t>PALILLO Marolio 50U</t>
-  </si>
-  <si>
-    <t>7797470195659</t>
-  </si>
-  <si>
-    <t>3411</t>
-  </si>
-  <si>
-    <t>PAN RALLADO MAROLIO X500G</t>
-  </si>
-  <si>
-    <t>7797470132623</t>
-  </si>
-  <si>
-    <t>396,61</t>
-  </si>
-  <si>
-    <t>2024-01-23 00:00:00</t>
-  </si>
-  <si>
-    <t>3433</t>
-  </si>
-  <si>
-    <t>PAN RALLADO MOLTO X 500 GR</t>
-  </si>
-  <si>
-    <t>7798138554948</t>
-  </si>
-  <si>
-    <t>552</t>
-  </si>
-  <si>
-    <t>PAN RALLADO PREFERIDO X 500 GR</t>
-  </si>
-  <si>
-    <t>7790070411488</t>
-  </si>
-  <si>
-    <t>991,65</t>
-  </si>
-  <si>
-    <t>2023-12-13 00:00:00</t>
-  </si>
-  <si>
-    <t>3414</t>
-  </si>
-  <si>
-    <t>PAPAS FRITAS MAROLIO ORIGINAL X130G</t>
-  </si>
-  <si>
-    <t>7797470197080</t>
-  </si>
-  <si>
-    <t>2.272,64</t>
-  </si>
-  <si>
-    <t>2023-10-20 00:00:00</t>
-  </si>
-  <si>
-    <t>3413</t>
-  </si>
-  <si>
-    <t>PAPAS FRITAS MAROLIO SAB.CREMA CEBOLLA X130G</t>
-  </si>
-  <si>
-    <t>7797470197097</t>
-  </si>
-  <si>
-    <t>2023-11-27 00:00:00</t>
-  </si>
-  <si>
-    <t>3412</t>
-  </si>
-  <si>
-    <t>PAPAS FRITAS MAROLIO SAB.QUESO X130G</t>
-  </si>
-  <si>
-    <t>7797470197073</t>
-  </si>
-  <si>
-    <t>2990</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO HIGIENOL MAX DE 4 ROLLOS X 100 MT</t>
-  </si>
-  <si>
-    <t>7790250015833</t>
-  </si>
-  <si>
-    <t>2.975,12</t>
-  </si>
-  <si>
-    <t>3539</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO VUAL ROLLO X 4 UN X 30MT</t>
-  </si>
-  <si>
-    <t>7791818001961</t>
-  </si>
-  <si>
-    <t>1.115,62</t>
-  </si>
-  <si>
-    <t>3538</t>
-  </si>
-  <si>
-    <t>PAPEL HIGIENICO VUAL ROLLO X 6 UN X 30 MT</t>
-  </si>
-  <si>
-    <t>7791818001978</t>
-  </si>
-  <si>
-    <t>1.652,81</t>
-  </si>
-  <si>
-    <t>3293</t>
-  </si>
-  <si>
-    <t>PAPEL HIGUIENICO ESENCIAL 4X30MTS</t>
-  </si>
-  <si>
-    <t>7797470129685</t>
-  </si>
-  <si>
-    <t>2734</t>
-  </si>
-  <si>
-    <t>PASTA DE DIENTES COLGATE HERBAL X 70 GR</t>
-  </si>
-  <si>
-    <t>7509546677200</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>PASTA DE DIENTES ODOL DOBLE ACCION X 180 GR</t>
-  </si>
-  <si>
-    <t>7509546665931</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>PASTA DE DIENTES ODOLITO X 50 GR</t>
-  </si>
-  <si>
-    <t>7891024139165</t>
-  </si>
-  <si>
-    <t>3235</t>
-  </si>
-  <si>
-    <t>PASTA DENTAL COLGATE LUMINOUS WHITE X 70 GR</t>
-  </si>
-  <si>
-    <t>7509546679389</t>
-  </si>
-  <si>
-    <t>2.892,48</t>
-  </si>
-  <si>
-    <t>3225</t>
-  </si>
-  <si>
-    <t>PASTA DENTAL COLGATE MAX.PROTE.ANTICARIES X 90 GR</t>
-  </si>
-  <si>
-    <t>7509546686295</t>
-  </si>
-  <si>
-    <t>3227</t>
-  </si>
-  <si>
-    <t>PASTA DENTAL COLGATE MAX.PROTEC.ANTICARIES X 180 G</t>
-  </si>
-  <si>
-    <t>7509546677545</t>
-  </si>
-  <si>
-    <t>2985</t>
-  </si>
-  <si>
-    <t>PATE DE FOIE MAROLIO X 90 GR</t>
-  </si>
-  <si>
-    <t>7797470000564</t>
-  </si>
-  <si>
-    <t>371,82</t>
-  </si>
-  <si>
-    <t>3522</t>
-  </si>
-  <si>
-    <t>PATE DE FOIE MOLTO X 90 GR</t>
-  </si>
-  <si>
-    <t>7798138554825</t>
-  </si>
-  <si>
-    <t>413,14</t>
-  </si>
-  <si>
-    <t>3523</t>
-  </si>
-  <si>
-    <t>PICADILLO DE CARNE MOLTO X 90 GR</t>
-  </si>
-  <si>
-    <t>7798138554832</t>
-  </si>
-  <si>
-    <t>2984</t>
-  </si>
-  <si>
-    <t>PICADILLO MAROLIO DE CARNE X 90 GR</t>
-  </si>
-  <si>
-    <t>7797470000571</t>
-  </si>
-  <si>
-    <t>471</t>
-  </si>
-  <si>
-    <t>POLENTA PRONTA PRESTO FLOWPACK 500GRS</t>
-  </si>
-  <si>
-    <t>7790580660000</t>
-  </si>
-  <si>
-    <t>768,51</t>
-  </si>
-  <si>
-    <t>3460</t>
-  </si>
-  <si>
-    <t>POMADA LIQUIDA WASSINGTON MARRON POMO X 60 ML</t>
-  </si>
-  <si>
-    <t>7793350000419</t>
-  </si>
-  <si>
-    <t>2.066,03</t>
-  </si>
-  <si>
-    <t>3461</t>
-  </si>
-  <si>
-    <t>POMADA LIQUIDA WASSINGTON NEGRO POMO X 60 ML</t>
-  </si>
-  <si>
-    <t>7793350000402</t>
-  </si>
-  <si>
-    <t>3316</t>
-  </si>
-  <si>
-    <t>POROTOS COLORADOS MAROLIO X400G</t>
-  </si>
-  <si>
-    <t>7797470198803</t>
-  </si>
-  <si>
-    <t>1.266,87</t>
-  </si>
-  <si>
-    <t>5604</t>
-  </si>
-  <si>
-    <t>POROTOS MAROLIO PAQUETE 400GRS</t>
-  </si>
-  <si>
-    <t>7797470001462</t>
-  </si>
-  <si>
-    <t>1.085,88</t>
-  </si>
-  <si>
-    <t>3314</t>
-  </si>
-  <si>
-    <t>POROTOS NEGROS MAROLIO X400G</t>
-  </si>
-  <si>
-    <t>7797470198797</t>
-  </si>
-  <si>
-    <t>1.221,63</t>
-  </si>
-  <si>
-    <t>3452</t>
-  </si>
-  <si>
-    <t>PROTECTOR DIARIO DONCELLA X 20 UNIDADES</t>
-  </si>
-  <si>
-    <t>7790940233240</t>
-  </si>
-  <si>
-    <t>CEREALES EL DIAMANTE S.R.L,MAXICONSUMO</t>
-  </si>
-  <si>
-    <t>3085</t>
-  </si>
-  <si>
-    <t>PURE DE PAPAS INST. MAGGI X125G</t>
-  </si>
-  <si>
-    <t>8445290367327</t>
-  </si>
-  <si>
-    <t>1.239,58</t>
-  </si>
-  <si>
-    <t>3417</t>
-  </si>
-  <si>
-    <t>PURE DE TOMATE MAROLIO X520G</t>
-  </si>
-  <si>
-    <t>7797470000588</t>
-  </si>
-  <si>
-    <t>446,20</t>
-  </si>
-  <si>
-    <t>5592</t>
-  </si>
-  <si>
-    <t>QUITAMANCHA ZORRO LIQUIDO DOYPACK 800ML</t>
-  </si>
-  <si>
-    <t>7790990001844</t>
-  </si>
-  <si>
-    <t>1.156,94</t>
-  </si>
-  <si>
-    <t>5581</t>
-  </si>
-  <si>
-    <t>QUITAMANCHA ZORRO PAQUETE 800GRS</t>
-  </si>
-  <si>
-    <t>7790990001905</t>
-  </si>
-  <si>
-    <t>1.016,44</t>
-  </si>
-  <si>
-    <t>3415</t>
-  </si>
-  <si>
-    <t>REBOZADOR MAROLIO X500GR</t>
-  </si>
-  <si>
-    <t>7797470132630</t>
-  </si>
-  <si>
-    <t>3432</t>
-  </si>
-  <si>
-    <t>REBOZADOR MOLTO X 500 GR</t>
-  </si>
-  <si>
-    <t>7798138554924</t>
-  </si>
-  <si>
-    <t>1589</t>
-  </si>
-  <si>
-    <t>REBOZADOR PREFERIDO FLOWPACK 500GRS</t>
-  </si>
-  <si>
-    <t>7790070411549</t>
-  </si>
-  <si>
-    <t>2024-01-12 00:00:00</t>
-  </si>
-  <si>
-    <t>2596</t>
-  </si>
-  <si>
-    <t>REBOZADOR PREFERIDO HORNO X 500 GR</t>
-  </si>
-  <si>
-    <t>7790070411518</t>
-  </si>
-  <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>1149.534 - (Oscar David)</t>
-  </si>
-  <si>
-    <t>2741</t>
-  </si>
-  <si>
-    <t>REPELENTE OFF AEROSOL X 131 GR</t>
-  </si>
-  <si>
-    <t>7790520025395</t>
-  </si>
-  <si>
-    <t>2024-01-05 00:00:00</t>
-  </si>
-  <si>
-    <t>2989</t>
-  </si>
-  <si>
-    <t>ROLLO DE COCINA MAROLIO X 3 UN 50 ROLLOS</t>
-  </si>
-  <si>
-    <t>7797470003893</t>
-  </si>
-  <si>
-    <t>1.239,59</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>SAL CELUSAL FINA CAJA X 500 GR</t>
-  </si>
-  <si>
-    <t>7790072002080</t>
-  </si>
-  <si>
-    <t>487,52</t>
-  </si>
-  <si>
-    <t>1326</t>
-  </si>
-  <si>
-    <t>SAL CELUSAL FINA LIGHT SALERO X 235 GR</t>
-  </si>
-  <si>
-    <t>7790072000079</t>
-  </si>
-  <si>
-    <t>2.479,25</t>
-  </si>
-  <si>
-    <t>1209</t>
-  </si>
-  <si>
-    <t>SAL CELUSAL FINA SALERO X 500 GRS</t>
-  </si>
-  <si>
-    <t>7790072001038</t>
-  </si>
-  <si>
-    <t>546</t>
-  </si>
-  <si>
-    <t>SAL CELUSAL FINA X 500 GR</t>
-  </si>
-  <si>
-    <t>7790072001014</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>SAL CELUSAL GRUESA BOLSA 1,0KG</t>
-  </si>
-  <si>
-    <t>7791004000099</t>
-  </si>
-  <si>
-    <t>727,19</t>
-  </si>
-  <si>
-    <t>1217</t>
-  </si>
-  <si>
-    <t>SAL CELUSAL GRUESA PAQUETE X 500 GR</t>
-  </si>
-  <si>
-    <t>7791004000822</t>
-  </si>
-  <si>
-    <t>3180</t>
-  </si>
-  <si>
-    <t>SAL CELUSAL GRUESA PAQUETE X1KG</t>
-  </si>
-  <si>
-    <t>7791004000082</t>
-  </si>
-  <si>
-    <t>785,04</t>
-  </si>
-  <si>
-    <t>1325</t>
-  </si>
-  <si>
-    <t>SAL CELUSAL GRUESA SALERO 1,0KG</t>
-  </si>
-  <si>
-    <t>7791004000105</t>
-  </si>
-  <si>
-    <t>1.818,09</t>
-  </si>
-  <si>
-    <t>3450</t>
-  </si>
-  <si>
-    <t>SAL DOS ANCLAS FINA PAQ. X 500 GR</t>
-  </si>
-  <si>
-    <t>7792900000428</t>
-  </si>
-  <si>
-    <t>537,11</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>SAL DOS ANCLAS FINA PAQUETE 500GRS</t>
-  </si>
-  <si>
-    <t>7792900000138</t>
-  </si>
-  <si>
-    <t>1220</t>
-  </si>
-  <si>
-    <t>SAL DOS ANCLAS FINA SALERO X 250 GR</t>
-  </si>
-  <si>
-    <t>7792900634227</t>
-  </si>
-  <si>
-    <t>1211</t>
-  </si>
-  <si>
-    <t>SAL DOS ANCLAS GRUESA BOLSA 1,0KG</t>
-  </si>
-  <si>
-    <t>7792900006949</t>
-  </si>
-  <si>
-    <t>451</t>
-  </si>
-  <si>
-    <t>Sin Precio (Ni en Maxiconsumo ni en Oscar David)</t>
-  </si>
-  <si>
-    <t>3325</t>
-  </si>
-  <si>
-    <t>SAL DOS ANCLAS GRUESA X1KG</t>
-  </si>
-  <si>
-    <t>7792900000121</t>
-  </si>
-  <si>
-    <t>986</t>
-  </si>
-  <si>
-    <t>2226</t>
-  </si>
-  <si>
-    <t>SAL GRUESA DOS ANCLAS CAJA X 500 GR</t>
-  </si>
-  <si>
-    <t>7792900092676</t>
-  </si>
-  <si>
-    <t>2344</t>
-  </si>
-  <si>
-    <t>SAL PARRILLERA DOS ANCLAS CAJA X 1 KG</t>
-  </si>
-  <si>
-    <t>7792900000145</t>
-  </si>
-  <si>
-    <t>446</t>
-  </si>
-  <si>
-    <t>499</t>
-  </si>
-  <si>
-    <t>SALSA BARBACOA LA CAMPAÑOLA X 237 GR</t>
-  </si>
-  <si>
-    <t>7793360123474</t>
-  </si>
-  <si>
-    <t>1566</t>
-  </si>
-  <si>
-    <t>SALSA HELLMANNS BARBACOA X 250 GR</t>
-  </si>
-  <si>
-    <t>7794000003583</t>
-  </si>
-  <si>
-    <t>3292</t>
-  </si>
-  <si>
-    <t>SALSA MAROLIO FILETTO X200G</t>
-  </si>
-  <si>
-    <t>7797470197936</t>
-  </si>
-  <si>
-    <t>3291</t>
-  </si>
-  <si>
-    <t>SALSA MAROLIO PIZZA X200G</t>
-  </si>
-  <si>
-    <t>7797470197929</t>
-  </si>
-  <si>
-    <t>2297</t>
-  </si>
-  <si>
-    <t>SALSA TAHITI AJI PICANTE X 285 GR</t>
-  </si>
-  <si>
-    <t>7798116163087</t>
-  </si>
-  <si>
-    <t>41137</t>
-  </si>
-  <si>
-    <t>1379.123 - (Oscar David)</t>
-  </si>
-  <si>
-    <t>2288</t>
-  </si>
-  <si>
-    <t>SALSA TAHITI CESAR X 265 GR</t>
-  </si>
-  <si>
-    <t>7798116160017</t>
-  </si>
-  <si>
-    <t>1.239,90</t>
-  </si>
-  <si>
-    <t>2295</t>
-  </si>
-  <si>
-    <t>SALSA TAHITI CHIMICHURRI X 270 GR</t>
-  </si>
-  <si>
-    <t>7798116163018</t>
-  </si>
-  <si>
-    <t>999,90</t>
-  </si>
-  <si>
-    <t>2296</t>
-  </si>
-  <si>
-    <t>SALSA TAHITI CRIOLLA X 275 GR</t>
-  </si>
-  <si>
-    <t>7798116166439</t>
-  </si>
-  <si>
-    <t>1.299,90</t>
-  </si>
-  <si>
-    <t>2289</t>
-  </si>
-  <si>
-    <t>SALSA TAHITI INGLESA X 265 GR</t>
-  </si>
-  <si>
-    <t>7798116166446</t>
-  </si>
-  <si>
-    <t>1.049,90</t>
-  </si>
-  <si>
-    <t>3504</t>
-  </si>
-  <si>
-    <t>VINAGRE MOLTO DE MANZANA X 1 LT</t>
-  </si>
-  <si>
-    <t>7798138551589</t>
-  </si>
-  <si>
-    <t>1.008,18</t>
-  </si>
-  <si>
-    <t>5572</t>
-  </si>
-  <si>
-    <t>VINGRE DE VINO MOLTO X 500ML</t>
-  </si>
-  <si>
-    <t>7798138551596</t>
-  </si>
-  <si>
-    <t>661,07</t>
-  </si>
-  <si>
-    <t>1187</t>
-  </si>
-  <si>
-    <t>VITINA LUCCHETTI CLASICA CAJA 500GRS</t>
-  </si>
-  <si>
-    <t>7790070318879</t>
-  </si>
-  <si>
     <t>1232</t>
   </si>
   <si>
@@ -901,6 +943,9 @@
     <t>7792710000380</t>
   </si>
   <si>
+    <t>1.322,23</t>
+  </si>
+  <si>
     <t>3445</t>
   </si>
   <si>
@@ -955,9 +1000,6 @@
     <t>7790070509055</t>
   </si>
   <si>
-    <t>2.644,54</t>
-  </si>
-  <si>
     <t>1350</t>
   </si>
   <si>
@@ -970,6 +1012,15 @@
     <t>2.396,61</t>
   </si>
   <si>
+    <t>1351</t>
+  </si>
+  <si>
+    <t>YERBA MATE LA MERCED CAMPO &amp; MONTE C/PALO X 500 GR</t>
+  </si>
+  <si>
+    <t>7790387015638</t>
+  </si>
+  <si>
     <t>2469</t>
   </si>
   <si>
@@ -1006,79 +1057,7 @@
     <t>7790411001972</t>
   </si>
   <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>ADEREZO TAU MOSTAZA DULCE X 320 GR</t>
-  </si>
-  <si>
-    <t>7798146139076</t>
-  </si>
-  <si>
-    <t>OSCAR DAVID MAYORISTA</t>
-  </si>
-  <si>
-    <t>29137</t>
-  </si>
-  <si>
-    <t>3154.974</t>
-  </si>
-  <si>
-    <t>2023-12-20 00:00:00</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>ADEREZO TAU TERIYAKI X 320 GR</t>
-  </si>
-  <si>
-    <t>7798146139069</t>
-  </si>
-  <si>
-    <t>15429</t>
-  </si>
-  <si>
-    <t>2849.816</t>
-  </si>
-  <si>
-    <t>4752</t>
-  </si>
-  <si>
-    <t>MAYONESA MAYOLIVA POR 250 GRS</t>
-  </si>
-  <si>
-    <t>7791866003283</t>
-  </si>
-  <si>
-    <t>829</t>
-  </si>
-  <si>
-    <t>Sin Precio</t>
-  </si>
-  <si>
-    <t>2024-01-11 00:00:00</t>
-  </si>
-  <si>
-    <t>2706</t>
-  </si>
-  <si>
-    <t>PASTA DE MANI MANTECOL CLASICO BAJO SODIO X 404 GR</t>
-  </si>
-  <si>
-    <t>7622201812713</t>
-  </si>
-  <si>
-    <t>2024-01-29 00:00:00</t>
-  </si>
-  <si>
-    <t>1351</t>
-  </si>
-  <si>
-    <t>YERBA MATE LA MERCED CAMPO &amp; MONTE C/PALO X 500 GR</t>
-  </si>
-  <si>
-    <t>7790387015638</t>
+    <t>2.148,68</t>
   </si>
 </sst>
 </file>
@@ -1421,12 +1400,14 @@
   <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1459,1332 +1440,1326 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="C2">
+        <v>7794000006621</v>
       </c>
       <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
         <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>59</v>
-      </c>
-      <c r="G13" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
         <v>80</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
         <v>96</v>
       </c>
-      <c r="D23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
-      </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C33" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
         <v>134</v>
       </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>135</v>
-      </c>
       <c r="G34" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G38" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="G41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="G42" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="G44" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C45" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
-        <v>177</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F46" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>182</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B47" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C47" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B49" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="G50" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C51" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G51" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>114</v>
+        <v>211</v>
       </c>
       <c r="G53" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="G54" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C59" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" t="s">
-        <v>229</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B60" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C60" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" t="s">
-        <v>234</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
         <v>236</v>
       </c>
-      <c r="C61" t="s">
-        <v>237</v>
-      </c>
-      <c r="D61" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" t="s">
-        <v>114</v>
-      </c>
       <c r="G61" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B62" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C62" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" t="s">
-        <v>241</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B64" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C64" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="G64" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C65" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="G65" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C66" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C67" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2798,193 +2773,193 @@
         <v>261</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
       <c r="G68" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>262</v>
+      </c>
+      <c r="B69" t="s">
         <v>263</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>264</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" t="s">
         <v>265</v>
       </c>
-      <c r="D69" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" t="s">
-        <v>266</v>
-      </c>
       <c r="G69" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>266</v>
+      </c>
+      <c r="B70" t="s">
         <v>267</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>268</v>
       </c>
-      <c r="C70" t="s">
-        <v>269</v>
-      </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F70" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G70" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>269</v>
+      </c>
+      <c r="B71" t="s">
+        <v>270</v>
+      </c>
+      <c r="C71" t="s">
         <v>271</v>
       </c>
-      <c r="B71" t="s">
-        <v>272</v>
-      </c>
-      <c r="C71" t="s">
-        <v>273</v>
-      </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>274</v>
+        <v>111</v>
       </c>
       <c r="G71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>272</v>
+      </c>
+      <c r="B72" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" t="s">
+        <v>274</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="F72" t="s">
         <v>275</v>
       </c>
-      <c r="B72" t="s">
-        <v>276</v>
-      </c>
-      <c r="C72" t="s">
-        <v>277</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" t="s">
-        <v>278</v>
-      </c>
       <c r="G72" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>276</v>
+      </c>
+      <c r="B73" t="s">
+        <v>277</v>
+      </c>
+      <c r="C73" t="s">
+        <v>278</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" t="s">
         <v>279</v>
       </c>
-      <c r="B73" t="s">
-        <v>280</v>
-      </c>
-      <c r="C73" t="s">
-        <v>281</v>
-      </c>
-      <c r="D73" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" t="s">
-        <v>282</v>
-      </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>280</v>
+      </c>
+      <c r="B74" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" t="s">
+        <v>282</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" t="s">
         <v>283</v>
       </c>
-      <c r="B74" t="s">
-        <v>284</v>
-      </c>
-      <c r="C74" t="s">
-        <v>285</v>
-      </c>
-      <c r="D74" t="s">
-        <v>10</v>
-      </c>
-      <c r="F74" t="s">
-        <v>84</v>
-      </c>
       <c r="G74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" t="s">
         <v>286</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="C75" t="s">
-        <v>288</v>
-      </c>
-      <c r="D75" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" t="s">
-        <v>289</v>
-      </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>288</v>
+      </c>
+      <c r="B76" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" t="s">
         <v>290</v>
       </c>
-      <c r="B76" t="s">
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" t="s">
         <v>291</v>
       </c>
-      <c r="C76" t="s">
-        <v>292</v>
-      </c>
-      <c r="D76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>151</v>
-      </c>
       <c r="G76" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>292</v>
+      </c>
+      <c r="B77" t="s">
         <v>293</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>294</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" t="s">
         <v>295</v>
       </c>
-      <c r="D77" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>59</v>
-      </c>
-      <c r="G77" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2998,302 +2973,293 @@
         <v>298</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>59</v>
+        <v>299</v>
       </c>
       <c r="G78" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B79" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C79" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>59</v>
+        <v>303</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B80" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C80" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F80" t="s">
-        <v>59</v>
+        <v>307</v>
       </c>
       <c r="G80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B81" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C81" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="G81" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B82" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C82" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>311</v>
+        <v>173</v>
       </c>
       <c r="G82" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B83" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C83" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>315</v>
+        <v>173</v>
       </c>
       <c r="G83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B84" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C84" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>315</v>
+        <v>173</v>
       </c>
       <c r="G84" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B85" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C85" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>315</v>
+        <v>173</v>
       </c>
       <c r="G85" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B86" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C86" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B87" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C87" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="G87" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B88" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C88" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D88" t="s">
-        <v>331</v>
-      </c>
-      <c r="E88" t="s">
-        <v>332</v>
+        <v>25</v>
       </c>
       <c r="F88" t="s">
-        <v>333</v>
+        <v>111</v>
       </c>
       <c r="G88" t="s">
-        <v>334</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>333</v>
+      </c>
+      <c r="B89" t="s">
+        <v>334</v>
+      </c>
+      <c r="C89" t="s">
         <v>335</v>
       </c>
-      <c r="B89" t="s">
-        <v>336</v>
-      </c>
-      <c r="C89" t="s">
-        <v>337</v>
-      </c>
       <c r="D89" t="s">
-        <v>331</v>
-      </c>
-      <c r="E89" t="s">
-        <v>338</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G89" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B90" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C90" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D90" t="s">
-        <v>331</v>
-      </c>
-      <c r="E90" t="s">
-        <v>343</v>
+        <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="G90" t="s">
-        <v>345</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B91" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C91" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D91" t="s">
-        <v>331</v>
+        <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G91" t="s">
-        <v>349</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B92" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C92" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D92" t="s">
-        <v>331</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>345</v>
       </c>
       <c r="G92" t="s">
-        <v>345</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
